--- a/research/Monte_carlo/output/sensitivity_results.xlsx
+++ b/research/Monte_carlo/output/sensitivity_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kwrwater-my.sharepoint.com/personal/alex_hockin_kwrwater_nl/Documents/VEWIN Permatie/pipepermcalc/research/Monte_carlo/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_A78896684F8653D2D7127C97658E01CF7AD14DCE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D411AF26-436C-4770-9E4A-61F28164AA69}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="11_A788966854CE5DE3D3517C97658E01CF7AD14DCF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6F9EB11-BBA5-41FB-B979-CA878AF8A42E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df_analysis" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,28 @@
     <sheet name="peak_std" sheetId="7" r:id="rId7"/>
     <sheet name="mean_std" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">df_analysis!$A$1:$R$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="95">
   <si>
     <t>(median+std)/median</t>
   </si>
@@ -160,12 +176,331 @@
   <si>
     <t>f_Ktemp</t>
   </si>
+  <si>
+    <t>+ 1%</t>
+  </si>
+  <si>
+    <t>+ standaardafwijking</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>214,38</t>
+  </si>
+  <si>
+    <t>1,01</t>
+  </si>
+  <si>
+    <t>214,44</t>
+  </si>
+  <si>
+    <t>214,42</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>h</t>
+    </r>
+  </si>
+  <si>
+    <t>2,45</t>
+  </si>
+  <si>
+    <t>1,00</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>mp</t>
+    </r>
+  </si>
+  <si>
+    <t>1,58</t>
+  </si>
+  <si>
+    <t>0,92</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <t>2,10</t>
+  </si>
+  <si>
+    <t>1,99</t>
+  </si>
+  <si>
+    <t>ф</t>
+  </si>
+  <si>
+    <t>1,16</t>
+  </si>
+  <si>
+    <t>0,99</t>
+  </si>
+  <si>
+    <t>0,86</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>1,59</t>
+  </si>
+  <si>
+    <t>0,63</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+  </si>
+  <si>
+    <t>1,57</t>
+  </si>
+  <si>
+    <t>1,33</t>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>pw</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>2,06</t>
+  </si>
+  <si>
+    <t>1,21</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dc</t>
+    </r>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>0,95</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kc</t>
+    </r>
+  </si>
+  <si>
+    <t>1,97</t>
+  </si>
+  <si>
+    <t>0,79</t>
+  </si>
+  <si>
+    <t>0,94</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <t>1,31</t>
+  </si>
+  <si>
+    <t>0,80</t>
+  </si>
+  <si>
+    <t>0,87</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>K</t>
+    </r>
+  </si>
+  <si>
+    <t>2,48</t>
+  </si>
+  <si>
+    <t>0,78</t>
+  </si>
+  <si>
+    <t> Converted to the Kpw and Dp not the logKpw or LogDp since this confuses the proportionality</t>
+  </si>
+  <si>
+    <t>% change input</t>
+  </si>
+  <si>
+    <t>% change output</t>
+  </si>
+  <si>
+    <t>standard deviation</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peak </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +526,70 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,8 +701,20 @@
         <fgColor rgb="FFFEF6FB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -328,11 +737,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -358,10 +797,74 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,6 +877,3804 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>concentration_soil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>213.37880347825649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>213.44122293535113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B444-4B4B-91FA-24B4C3021B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>length_pipe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4534490934475557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B444-4B4B-91FA-24B4C3021B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>length_fraction_middle_point</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.58309518948452999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-8.4744715199237985E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B444-4B4B-91FA-24B4C3021B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>length_plume</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0991648946397543</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.99172479356893706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B444-4B4B-91FA-24B4C3021B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>inner_diameter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.15690245130973521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.15687378743337874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B444-4B4B-91FA-24B4C3021B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>flow_rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.59365861869895875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-0.37247750212679925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B444-4B4B-91FA-24B4C3021B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_Dp_ref</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.59365861869895875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-0.37247750212679925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B444-4B4B-91FA-24B4C3021B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_Kpw_ref</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0605001951848954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0601648496923068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B444-4B4B-91FA-24B4C3021B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DIFFUSION_A_C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.772819442850661E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-8.4428018088110832E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B444-4B4B-91FA-24B4C3021B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PARTITIONING_A_C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.97207810998674082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-0.2075870945951647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B444-4B4B-91FA-24B4C3021B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>activattion_energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.30914729205473968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-0.19518377515354313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-B444-4B4B-91FA-24B4C3021B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>partitioning_enthalpie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4786791855504056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-0.21606589986829317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-B444-4B4B-91FA-24B4C3021B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2115630880"/>
+        <c:axId val="2115636160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2115630880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% change input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2115636160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2115636160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$J$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% change output</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2115630880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73357198331999096"/>
+          <c:y val="0.10905669073352164"/>
+          <c:w val="0.25428841121718665"/>
+          <c:h val="0.75314323634226366"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3019806515080911E-2"/>
+          <c:y val="3.3472798446018741E-2"/>
+          <c:w val="0.65368318338052966"/>
+          <c:h val="0.86162702399879576"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DIFFUSION_A_C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.999999999999943E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-8.986389290700128E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3055-431F-BBCA-9CE2C72419E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$H$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>activattion_energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>df_analysis!$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000158E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>df_analysis!$J$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-7.0002124294704631E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3055-431F-BBCA-9CE2C72419E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2115630880"/>
+        <c:axId val="2115636160"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$H$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>concentration_soil</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$I$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1.0000000000000004E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$J$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1.0000013779867947E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3055-431F-BBCA-9CE2C72419E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$H$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>length_pipe</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$I$44</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1.0000000000000051E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$J$44</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-3055-431F-BBCA-9CE2C72419E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$H$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>length_fraction_middle_point</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$I$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1.0000000000000009E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$J$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-3055-431F-BBCA-9CE2C72419E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$H$30</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>length_plume</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$I$46</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>9.9999999999999725E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$J$46</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>9.9981463583218091E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-3055-431F-BBCA-9CE2C72419E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$H$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>inner_diameter</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$I$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1.0000000000000089E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$J$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>9.9981463583218091E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-3055-431F-BBCA-9CE2C72419E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$H$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>flow_rate</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$I$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1.0000000000000009E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$J$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>-9.900990099009889E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-3055-431F-BBCA-9CE2C72419E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$H$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>log_Dp_ref</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$I$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>9.9999999999899527E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$J$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>9.9981463583228448E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-3055-431F-BBCA-9CE2C72419E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$H$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>log_Kpw_ref</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$I$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>9.9999999999985205E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$J$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>9.9981463583218091E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-3055-431F-BBCA-9CE2C72419E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$H$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>PARTITIONING_A_C</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$I$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>9.9999999999997001E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$J$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>-2.3910184025689443E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-3055-431F-BBCA-9CE2C72419E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$H$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>partitioning_enthalpie</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$I$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1.0000000000000075E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>df_analysis!$J$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>-1.6451311202468127E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-3055-431F-BBCA-9CE2C72419E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2115630880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000004E-2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% change input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2115636160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2115636160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000004E-2"/>
+          <c:min val="-2.0000000000000004E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>df_analysis!$J$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% change output</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2115630880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73357198331999096"/>
+          <c:y val="0.10905669073352164"/>
+          <c:w val="0.25428841121718665"/>
+          <c:h val="0.75314323634226366"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09ED81C9-686D-8B76-753B-18F1660161C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1876425" y="2867025"/>
+          <a:ext cx="676275" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796B2AE0-8EC9-9EE9-12F0-DB37677635C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D85738-0DCB-4530-BA53-7BCDF58E5C4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -661,10 +4962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J13"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +4982,7 @@
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,393 +5010,2125 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="37">
         <v>214.37880347825649</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="37">
         <v>1.0100000137798679</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="37">
         <v>214.44122293535111</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="37">
         <v>1.010000008114357</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="37">
         <v>214.41555735078069</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2">
         <v>1.0000013779867921E-2</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2">
         <v>213.44122293535111</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2">
         <v>1.0000008114357421E-2</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2">
         <v>213.41555735078069</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="37">
+        <v>214.37880347825649</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="37">
         <v>2.4534490934475559</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="37">
         <v>1</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="37">
         <v>1</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="37">
         <v>1</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="37">
         <v>1</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="37">
+        <v>2.4534490934475559</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="37">
         <v>1.58309518948453</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="37">
         <v>1</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="37">
         <v>0.9152552848007619</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="37">
         <v>1</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="37">
         <v>0.99999999999999989</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4">
         <v>8.4744715199238096E-2</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4">
         <v>1.110223024625157E-16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>1.58309518948453</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="37">
         <v>2.0991648946397539</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="37">
         <v>1.0099981463583221</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="37">
         <v>1.9917247935689371</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="37">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="37">
         <v>1</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5">
         <v>9.9981463583216357E-3</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5">
         <v>0.99172479356893728</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5">
         <v>1.110223024625157E-16</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>2.0991648946397539</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="37">
         <v>1.156902451309735</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="37">
         <v>1.0099981463583221</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="37">
         <v>1.156873787433379</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="37">
         <v>0.99009900990098976</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="37">
         <v>0.86437711223439384</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6">
         <v>9.9981463583216357E-3</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6">
         <v>0.15687378743337849</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6">
         <v>9.9009900990102429E-3</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6">
         <v>0.13562288776560619</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="37">
+        <v>1.156902451309735</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="37">
         <v>1.593658618698959</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="37">
         <v>0.99009900990099009</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="37">
         <v>0.62752249787320047</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="37">
         <v>1</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="37">
         <v>1</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7">
         <v>9.9009900990099098E-3</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7">
         <v>0.37247750212679948</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="37">
+        <v>1.593658618698959</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23">
-        <v>0.98305012020020954</v>
-      </c>
-      <c r="C8" s="23">
+      <c r="B8" s="37">
+        <v>1.569362243769109</v>
+      </c>
+      <c r="C8" s="37">
         <v>1.009998146358323</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="37">
         <v>1.5692222857835709</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="37">
         <v>1.0063078731950601</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="37">
         <v>1.329493742610911</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8">
         <v>9.9981463583229679E-3</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8">
         <v>0.56922228578357115</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8">
         <v>6.3078731950598774E-3</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8">
         <v>0.32949374261091058</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="28">
+        <v>1.57</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="37">
+        <v>1.569362243769109</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="23">
-        <v>1.1905624874818681</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="B9" s="37">
+        <v>2.060500195184896</v>
+      </c>
+      <c r="C9" s="37">
         <v>1.0099981463583221</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="37">
         <v>2.0601648496923071</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="37">
         <v>1.002629243222142</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="37">
         <v>1.2101919095881419</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9">
         <v>9.9981463583220798E-3</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9">
         <v>1.0601648496923071</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9">
         <v>2.6292432221421969E-3</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9">
         <v>0.21019190958814171</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="37">
+        <v>2.060500195184896</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="37">
         <v>1.0977281944285071</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="37">
         <v>0.99101361070929983</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="37">
         <v>0.91557198191188915</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="37">
         <v>0.99431166608195598</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="37">
         <v>0.94577576517360751</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10">
         <v>8.9863892907001697E-3</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10">
         <v>8.4428018088110846E-2</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10">
         <v>5.6883339180440204E-3</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10">
         <v>5.4224234826392492E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="37">
+        <v>1.0977281944285071</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="37">
         <v>1.972078109986741</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="37">
         <v>0.99760898159743083</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="37">
         <v>0.79241290540483544</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="37">
         <v>0.9993684781176444</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="37">
         <v>0.9404392250578405</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11">
         <v>2.3910184025691672E-3</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11">
         <v>0.20758709459516461</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11">
         <v>6.3152188235560125E-4</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11">
         <v>5.95607749421595E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="37">
+        <v>1.972078109986741</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="37">
         <v>1.30914729205474</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="37">
         <v>0.99299978757052931</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="37">
         <v>0.80481622484645665</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="37">
         <v>0.99557053367507797</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="37">
         <v>0.87176104231988816</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12">
         <v>7.0002124294706869E-3</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12">
         <v>0.19518377515354329</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12">
         <v>4.4294663249220267E-3</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12">
         <v>0.12823895768011179</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="37">
+        <v>1.30914729205474</v>
+      </c>
+      <c r="R12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="37">
         <v>2.4786791855504049</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="37">
         <v>0.99835486887975311</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="37">
         <v>0.78393410013170661</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="37">
         <v>0.99956560323075794</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="37">
         <v>0.9377730581538265</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13">
         <v>1.6451311202468899E-3</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13">
         <v>0.21606589986829339</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13">
         <v>4.343967692420625E-4</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13">
         <v>6.22269418461735E-2</v>
       </c>
+      <c r="K13" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="37">
+        <v>2.4786791855504049</v>
+      </c>
+      <c r="R13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K14" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F19" s="38">
+        <f>F18*F17</f>
+        <v>7.980000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>6.0595855345002368E-3</v>
+      </c>
+      <c r="C27">
+        <v>1.292987110925812</v>
+      </c>
+      <c r="D27">
+        <v>6.1201813898452391E-3</v>
+      </c>
+      <c r="E27">
+        <v>1.299046696460312</v>
+      </c>
+      <c r="F27">
+        <v>2.5157556389110128E-3</v>
+      </c>
+      <c r="G27">
+        <v>4.38163627038705E-5</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="40">
+        <f>(E27-B27)/B27</f>
+        <v>213.37880347825649</v>
+      </c>
+      <c r="J27" s="49">
+        <f>(G27-$G$39)/$G$39</f>
+        <v>213.44122293535113</v>
+      </c>
+      <c r="K27" s="41">
+        <f>J27/I27-1</f>
+        <v>2.9252885514940985E-4</v>
+      </c>
+      <c r="L27" s="43">
+        <f>(E27-B27)/B27</f>
+        <v>213.37880347825649</v>
+      </c>
+      <c r="M27" s="48">
+        <f>(F27-$F$39)/$F$39</f>
+        <v>213.41555735078072</v>
+      </c>
+      <c r="N27" s="41">
+        <f>M27/L27-1</f>
+        <v>1.7224706449336935E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>6.9097957299999999</v>
+      </c>
+      <c r="C28">
+        <v>10.04303633967629</v>
+      </c>
+      <c r="D28">
+        <v>6.9788936873000003</v>
+      </c>
+      <c r="E28">
+        <v>16.95283206967629</v>
+      </c>
+      <c r="F28">
+        <v>1.1733083503802261E-5</v>
+      </c>
+      <c r="G28">
+        <v>2.0432807696251611E-7</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="40">
+        <f t="shared" ref="I28:I37" si="0">(E28-B28)/B28</f>
+        <v>1.4534490934475557</v>
+      </c>
+      <c r="J28" s="40">
+        <f>(G28-$G$39)/$G$39</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="41">
+        <f t="shared" ref="K28:K38" si="1">J28/I28-1</f>
+        <v>-1</v>
+      </c>
+      <c r="L28" s="43">
+        <f t="shared" ref="L28:L32" si="2">(E28-B28)/B28</f>
+        <v>1.4534490934475557</v>
+      </c>
+      <c r="M28" s="48">
+        <f t="shared" ref="M28:M32" si="3">(F28-$F$39)/$F$39</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="41">
+        <f t="shared" ref="N28:N38" si="4">M28/L28-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <v>0.29154759474226499</v>
+      </c>
+      <c r="D29">
+        <v>0.505</v>
+      </c>
+      <c r="E29">
+        <v>0.79154759474226499</v>
+      </c>
+      <c r="F29">
+        <v>1.1733083503802261E-5</v>
+      </c>
+      <c r="G29">
+        <v>1.870123522731197E-7</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="40">
+        <f t="shared" si="0"/>
+        <v>0.58309518948452999</v>
+      </c>
+      <c r="J29" s="40">
+        <f t="shared" ref="J29:J38" si="5">(G29-$G$39)/$G$39</f>
+        <v>-8.4744715199237985E-2</v>
+      </c>
+      <c r="K29" s="41">
+        <f t="shared" si="1"/>
+        <v>-1.1453359875497418</v>
+      </c>
+      <c r="L29" s="43">
+        <f t="shared" si="2"/>
+        <v>0.58309518948452999</v>
+      </c>
+      <c r="M29" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="41">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>3.4687215927764119</v>
+      </c>
+      <c r="C30">
+        <v>3.8126970040587249</v>
+      </c>
+      <c r="D30">
+        <v>3.5034088087041759</v>
+      </c>
+      <c r="E30">
+        <v>7.2814185968351373</v>
+      </c>
+      <c r="F30">
+        <v>1.1733083503802261E-5</v>
+      </c>
+      <c r="G30">
+        <v>4.0696529690850528E-7</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="40">
+        <f t="shared" si="0"/>
+        <v>1.0991648946397543</v>
+      </c>
+      <c r="J30" s="40">
+        <f t="shared" si="5"/>
+        <v>0.99172479356893706</v>
+      </c>
+      <c r="K30" s="41">
+        <f t="shared" si="1"/>
+        <v>-9.774702739758645E-2</v>
+      </c>
+      <c r="L30" s="43">
+        <f t="shared" si="2"/>
+        <v>1.0991648946397543</v>
+      </c>
+      <c r="M30" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="41">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="C31">
+        <v>3.0752880456708081E-3</v>
+      </c>
+      <c r="D31">
+        <v>1.9796000000000001E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.2675288045670809E-2</v>
+      </c>
+      <c r="F31">
+        <v>1.01418088366216E-5</v>
+      </c>
+      <c r="G31">
+        <v>2.3638179627460491E-7</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="40">
+        <f t="shared" si="0"/>
+        <v>0.15690245130973521</v>
+      </c>
+      <c r="J31" s="40">
+        <f t="shared" si="5"/>
+        <v>0.15687378743337874</v>
+      </c>
+      <c r="K31" s="41">
+        <f t="shared" si="1"/>
+        <v>-1.8268596900306022E-4</v>
+      </c>
+      <c r="L31" s="43">
+        <f t="shared" si="2"/>
+        <v>0.15690245130973521</v>
+      </c>
+      <c r="M31" s="48">
+        <f t="shared" si="3"/>
+        <v>-0.13562288776560633</v>
+      </c>
+      <c r="N31" s="41">
+        <f t="shared" si="4"/>
+        <v>-1.8643771122343926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>0.25</v>
+      </c>
+      <c r="C32">
+        <v>0.14841465467473969</v>
+      </c>
+      <c r="D32">
+        <v>0.2525</v>
+      </c>
+      <c r="E32">
+        <v>0.39841465467473969</v>
+      </c>
+      <c r="F32">
+        <v>1.1733083503802261E-5</v>
+      </c>
+      <c r="G32">
+        <v>1.2822046524114571E-7</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="40">
+        <f t="shared" si="0"/>
+        <v>0.59365861869895875</v>
+      </c>
+      <c r="J32" s="40">
+        <f t="shared" si="5"/>
+        <v>-0.37247750212679925</v>
+      </c>
+      <c r="K32" s="41">
+        <f t="shared" si="1"/>
+        <v>-1.6274270942837616</v>
+      </c>
+      <c r="L32" s="43">
+        <f t="shared" si="2"/>
+        <v>0.59365861869895875</v>
+      </c>
+      <c r="M32" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="41">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>-11.54717333172</v>
+      </c>
+      <c r="C33">
+        <v>0.19572320000000001</v>
+      </c>
+      <c r="D33">
+        <v>-11.54285195793736</v>
+      </c>
+      <c r="E33">
+        <v>-11.35145013172</v>
+      </c>
+      <c r="F33">
+        <v>1.55990610998364E-5</v>
+      </c>
+      <c r="G33">
+        <v>3.2063617198088101E-7</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="40">
+        <f>(10^E33-10^B33)/10^B33</f>
+        <v>0.56936224376910571</v>
+      </c>
+      <c r="J33" s="40">
+        <f>(G33-$G$39)/$G$39</f>
+        <v>0.56922228578357137</v>
+      </c>
+      <c r="K33" s="41">
+        <f t="shared" si="1"/>
+        <v>-2.4581536107459723E-4</v>
+      </c>
+      <c r="L33" s="43">
+        <f>(10^E33-10^B33)/10^B33</f>
+        <v>0.56936224376910571</v>
+      </c>
+      <c r="M33" s="48">
+        <f>(F33-$F$39)/$F$39</f>
+        <v>0.32949374261091025</v>
+      </c>
+      <c r="N33" s="41">
+        <f t="shared" si="4"/>
+        <v>-0.42129330454070235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>1.64761</v>
+      </c>
+      <c r="C34">
+        <v>0.31397266000000001</v>
+      </c>
+      <c r="D34">
+        <v>1.651931373782642</v>
+      </c>
+      <c r="E34">
+        <v>1.9615826599999999</v>
+      </c>
+      <c r="F34">
+        <v>1.419928273082358E-5</v>
+      </c>
+      <c r="G34">
+        <v>4.2094952196340011E-7</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="40">
+        <f>(10^E34-10^B34)/10^B34</f>
+        <v>1.0605001951848954</v>
+      </c>
+      <c r="J34" s="40">
+        <f t="shared" si="5"/>
+        <v>1.0601648496923068</v>
+      </c>
+      <c r="K34" s="41">
+        <f t="shared" si="1"/>
+        <v>-3.1621445626428546E-4</v>
+      </c>
+      <c r="L34" s="43">
+        <f>(10^E34-10^B34)/10^B34</f>
+        <v>1.0605001951848954</v>
+      </c>
+      <c r="M34" s="48">
+        <f t="shared" ref="M28:M38" si="6">(F34-$F$39)/$F$39</f>
+        <v>0.21019190958814149</v>
+      </c>
+      <c r="N34" s="41">
+        <f t="shared" si="4"/>
+        <v>-0.80179927307651733</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>0.78407720973558304</v>
+      </c>
+      <c r="C35">
+        <v>7.6626449999999999E-2</v>
+      </c>
+      <c r="D35">
+        <v>0.79191798183293882</v>
+      </c>
+      <c r="E35">
+        <v>0.86070365973558305</v>
+      </c>
+      <c r="F35">
+        <v>1.1096866028654421E-5</v>
+      </c>
+      <c r="G35">
+        <v>1.870770623848159E-7</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="40">
+        <f t="shared" si="0"/>
+        <v>9.772819442850661E-2</v>
+      </c>
+      <c r="J35" s="40">
+        <f t="shared" si="5"/>
+        <v>-8.4428018088110832E-2</v>
+      </c>
+      <c r="K35" s="41">
+        <f t="shared" si="1"/>
+        <v>-1.8639064558782414</v>
+      </c>
+      <c r="L35" s="43">
+        <f t="shared" ref="L35:L38" si="7">(E35-B35)/B35</f>
+        <v>9.772819442850661E-2</v>
+      </c>
+      <c r="M35" s="48">
+        <f t="shared" si="6"/>
+        <v>-5.4224234826392013E-2</v>
+      </c>
+      <c r="N35" s="41">
+        <f t="shared" si="4"/>
+        <v>-1.5548474024664389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>0.10396501984946301</v>
+      </c>
+      <c r="C36">
+        <v>0.10106212000000001</v>
+      </c>
+      <c r="D36">
+        <v>0.1050046700479576</v>
+      </c>
+      <c r="E36">
+        <v>0.205027139849463</v>
+      </c>
+      <c r="F36">
+        <v>1.103425195785473E-5</v>
+      </c>
+      <c r="G36">
+        <v>1.6191220512165019E-7</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="40">
+        <f t="shared" si="0"/>
+        <v>0.97207810998674082</v>
+      </c>
+      <c r="J36" s="40">
+        <f t="shared" si="5"/>
+        <v>-0.2075870945951647</v>
+      </c>
+      <c r="K36" s="41">
+        <f t="shared" si="1"/>
+        <v>-1.2135498088708079</v>
+      </c>
+      <c r="L36" s="43">
+        <f t="shared" si="7"/>
+        <v>0.97207810998674082</v>
+      </c>
+      <c r="M36" s="48">
+        <f t="shared" si="6"/>
+        <v>-5.9560774942159549E-2</v>
+      </c>
+      <c r="N36" s="41">
+        <f t="shared" si="4"/>
+        <v>-1.0612715936407333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>38.156061538172388</v>
+      </c>
+      <c r="C37">
+        <v>11.795843100000001</v>
+      </c>
+      <c r="D37">
+        <v>38.537622153554118</v>
+      </c>
+      <c r="E37">
+        <v>49.951904638172387</v>
+      </c>
+      <c r="F37">
+        <v>1.0228445104900939E-5</v>
+      </c>
+      <c r="G37">
+        <v>1.6444655153110851E-7</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="40">
+        <f t="shared" si="0"/>
+        <v>0.30914729205473968</v>
+      </c>
+      <c r="J37" s="40">
+        <f t="shared" si="5"/>
+        <v>-0.19518377515354313</v>
+      </c>
+      <c r="K37" s="41">
+        <f t="shared" si="1"/>
+        <v>-1.6313617494633679</v>
+      </c>
+      <c r="L37" s="43">
+        <f t="shared" si="7"/>
+        <v>0.30914729205473968</v>
+      </c>
+      <c r="M37" s="48">
+        <f t="shared" si="6"/>
+        <v>-0.12823895768011226</v>
+      </c>
+      <c r="N37" s="41">
+        <f t="shared" si="4"/>
+        <v>-1.4148150767479646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>8.9430527116520544</v>
+      </c>
+      <c r="C38">
+        <v>13.2239059</v>
+      </c>
+      <c r="D38">
+        <v>9.0324832387685756</v>
+      </c>
+      <c r="E38">
+        <v>22.16695861165206</v>
+      </c>
+      <c r="F38">
+        <v>1.1002969598934861E-5</v>
+      </c>
+      <c r="G38">
+        <v>1.6017974714525221E-7</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="40">
+        <f>(E38-B38)/B38</f>
+        <v>1.4786791855504056</v>
+      </c>
+      <c r="J38" s="40">
+        <f t="shared" si="5"/>
+        <v>-0.21606589986829317</v>
+      </c>
+      <c r="K38" s="41">
+        <f t="shared" si="1"/>
+        <v>-1.1461208773205713</v>
+      </c>
+      <c r="L38" s="43">
+        <f t="shared" si="7"/>
+        <v>1.4786791855504056</v>
+      </c>
+      <c r="M38" s="48">
+        <f t="shared" si="6"/>
+        <v>-6.2226941846173452E-2</v>
+      </c>
+      <c r="N38" s="41">
+        <f t="shared" si="4"/>
+        <v>-1.0420827874323604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>1.1733083503802261E-5</v>
+      </c>
+      <c r="G39">
+        <v>2.0432807696251611E-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F41" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="I41" t="s">
+        <v>92</v>
+      </c>
+      <c r="L41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J42" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L42" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>6.0595855345002368E-3</v>
+      </c>
+      <c r="C43">
+        <v>1.292987110925812</v>
+      </c>
+      <c r="D43">
+        <v>6.1201813898452391E-3</v>
+      </c>
+      <c r="E43">
+        <v>1.299046696460312</v>
+      </c>
+      <c r="F43">
+        <v>1.185041443404672E-5</v>
+      </c>
+      <c r="G43">
+        <v>2.0637136054775519E-7</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="43">
+        <f>(D43-B43)/B43</f>
+        <v>1.0000000000000004E-2</v>
+      </c>
+      <c r="J43" s="48">
+        <f>(G43-$G$39)/$G$39</f>
+        <v>1.0000013779867947E-2</v>
+      </c>
+      <c r="K43" s="41">
+        <f>J43/I43</f>
+        <v>1.0000013779867942</v>
+      </c>
+      <c r="L43" s="43">
+        <f>(D43-B43)/B43</f>
+        <v>1.0000000000000004E-2</v>
+      </c>
+      <c r="M43" s="48">
+        <f>(F43-$F$39)/$F$39</f>
+        <v>1.0000008114357738E-2</v>
+      </c>
+      <c r="N43" s="41">
+        <f>M43/L43</f>
+        <v>1.0000008114357735</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>6.9097957299999999</v>
+      </c>
+      <c r="C44">
+        <v>10.04303633967629</v>
+      </c>
+      <c r="D44">
+        <v>6.9788936873000003</v>
+      </c>
+      <c r="E44">
+        <v>16.95283206967629</v>
+      </c>
+      <c r="F44">
+        <v>1.1733083503802261E-5</v>
+      </c>
+      <c r="G44">
+        <v>2.0432807696251611E-7</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="43">
+        <f t="shared" ref="I44:I54" si="8">(D44-B44)/B44</f>
+        <v>1.0000000000000051E-2</v>
+      </c>
+      <c r="J44" s="48">
+        <f>(G44-$G$39)/$G$39</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="41">
+        <f t="shared" ref="K44:K54" si="9">J44/I44</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="43">
+        <f t="shared" ref="L44:L48" si="10">(D44-B44)/B44</f>
+        <v>1.0000000000000051E-2</v>
+      </c>
+      <c r="M44" s="48">
+        <f t="shared" ref="M44:M54" si="11">(F44-$F$39)/$F$39</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="41">
+        <f t="shared" ref="N44:N54" si="12">M44/L44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>0.5</v>
+      </c>
+      <c r="C45">
+        <v>0.29154759474226499</v>
+      </c>
+      <c r="D45">
+        <v>0.505</v>
+      </c>
+      <c r="E45">
+        <v>0.79154759474226499</v>
+      </c>
+      <c r="F45">
+        <v>1.1733083503802261E-5</v>
+      </c>
+      <c r="G45">
+        <v>2.0432807696251611E-7</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="43">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J45" s="48">
+        <f t="shared" ref="J45:J54" si="13">(G45-$G$39)/$G$39</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="43">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="M45" s="48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>3.4687215927764119</v>
+      </c>
+      <c r="C46">
+        <v>3.8126970040587249</v>
+      </c>
+      <c r="D46">
+        <v>3.5034088087041759</v>
+      </c>
+      <c r="E46">
+        <v>7.2814185968351373</v>
+      </c>
+      <c r="F46">
+        <v>1.1733083503802261E-5</v>
+      </c>
+      <c r="G46">
+        <v>2.0637097898110179E-7</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="43">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999725E-3</v>
+      </c>
+      <c r="J46" s="48">
+        <f t="shared" si="13"/>
+        <v>9.9981463583218091E-3</v>
+      </c>
+      <c r="K46" s="41">
+        <f t="shared" si="9"/>
+        <v>0.99981463583218366</v>
+      </c>
+      <c r="L46" s="43">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999725E-3</v>
+      </c>
+      <c r="M46" s="48">
+        <f>(F46-$F$39)/$F$39</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="C47">
+        <v>3.0752880456708081E-3</v>
+      </c>
+      <c r="D47">
+        <v>1.9796000000000001E-2</v>
+      </c>
+      <c r="E47">
+        <v>2.2675288045670809E-2</v>
+      </c>
+      <c r="F47">
+        <v>1.161691436020025E-5</v>
+      </c>
+      <c r="G47">
+        <v>2.0637097898110179E-7</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="43">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000089E-2</v>
+      </c>
+      <c r="J47" s="48">
+        <f t="shared" si="13"/>
+        <v>9.9981463583218091E-3</v>
+      </c>
+      <c r="K47" s="41">
+        <f t="shared" si="9"/>
+        <v>0.99981463583217201</v>
+      </c>
+      <c r="L47" s="43">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000089E-2</v>
+      </c>
+      <c r="M47" s="48">
+        <f t="shared" si="11"/>
+        <v>-9.900990099010628E-3</v>
+      </c>
+      <c r="N47" s="41">
+        <f t="shared" si="12"/>
+        <v>-0.99009900990105404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>0.25</v>
+      </c>
+      <c r="C48">
+        <v>0.14841465467473969</v>
+      </c>
+      <c r="D48">
+        <v>0.2525</v>
+      </c>
+      <c r="E48">
+        <v>0.39841465467473969</v>
+      </c>
+      <c r="F48">
+        <v>1.1733083503802261E-5</v>
+      </c>
+      <c r="G48">
+        <v>2.0230502669556051E-7</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="43">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J48" s="48">
+        <f t="shared" si="13"/>
+        <v>-9.900990099009889E-3</v>
+      </c>
+      <c r="K48" s="41">
+        <f t="shared" si="9"/>
+        <v>-0.99009900990098798</v>
+      </c>
+      <c r="L48" s="43">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="M48" s="48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>-11.54717333172</v>
+      </c>
+      <c r="C49">
+        <v>0.19572320000000001</v>
+      </c>
+      <c r="D49">
+        <v>-11.54285195793736</v>
+      </c>
+      <c r="E49">
+        <v>-11.35145013172</v>
+      </c>
+      <c r="F49">
+        <v>1.1807094306731301E-5</v>
+      </c>
+      <c r="G49">
+        <v>2.06370978981102E-7</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="43">
+        <f>(10^D49-10^B49)/10^B49</f>
+        <v>9.9999999999899527E-3</v>
+      </c>
+      <c r="J49" s="48">
+        <f t="shared" si="13"/>
+        <v>9.9981463583228448E-3</v>
+      </c>
+      <c r="K49" s="41">
+        <f t="shared" si="9"/>
+        <v>0.999814635833289</v>
+      </c>
+      <c r="L49" s="43">
+        <f>(10^D49-10^B49)/10^B49</f>
+        <v>9.9999999999899527E-3</v>
+      </c>
+      <c r="M49" s="48">
+        <f>(F49-$F$39)/$F$39</f>
+        <v>6.3078731950604117E-3</v>
+      </c>
+      <c r="N49" s="41">
+        <f t="shared" si="12"/>
+        <v>0.63078731950667499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>1.64761</v>
+      </c>
+      <c r="C50">
+        <v>0.31397266000000001</v>
+      </c>
+      <c r="D50">
+        <v>1.651931373782642</v>
+      </c>
+      <c r="E50">
+        <v>1.9615826599999999</v>
+      </c>
+      <c r="F50">
+        <v>1.1763932634079461E-5</v>
+      </c>
+      <c r="G50">
+        <v>2.0637097898110179E-7</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="43">
+        <f>(10^D50-10^B50)/10^B50</f>
+        <v>9.9999999999985205E-3</v>
+      </c>
+      <c r="J50" s="48">
+        <f t="shared" si="13"/>
+        <v>9.9981463583218091E-3</v>
+      </c>
+      <c r="K50" s="41">
+        <f t="shared" si="9"/>
+        <v>0.99981463583232888</v>
+      </c>
+      <c r="L50" s="43">
+        <f>(10^D50-10^B50)/10^B50</f>
+        <v>9.9999999999985205E-3</v>
+      </c>
+      <c r="M50" s="48">
+        <f>(F50-$F$39)/$F$39</f>
+        <v>2.6292432221421452E-3</v>
+      </c>
+      <c r="N50" s="41">
+        <f t="shared" si="12"/>
+        <v>0.26292432221425344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>0.78407720973558304</v>
+      </c>
+      <c r="C51">
+        <v>7.6626449999999999E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.79191798183293882</v>
+      </c>
+      <c r="E51">
+        <v>0.86070365973558305</v>
+      </c>
+      <c r="F51">
+        <v>1.1666341806944341E-5</v>
+      </c>
+      <c r="G51">
+        <v>2.024919053199108E-7</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="43">
+        <f t="shared" si="8"/>
+        <v>9.999999999999943E-3</v>
+      </c>
+      <c r="J51" s="44">
+        <f t="shared" si="13"/>
+        <v>-8.986389290700128E-3</v>
+      </c>
+      <c r="K51" s="41">
+        <f t="shared" si="9"/>
+        <v>-0.89863892907001797</v>
+      </c>
+      <c r="L51" s="43">
+        <f t="shared" ref="L51:L54" si="14">(D51-B51)/B51</f>
+        <v>9.999999999999943E-3</v>
+      </c>
+      <c r="M51" s="48">
+        <f t="shared" si="11"/>
+        <v>-5.688333918043925E-3</v>
+      </c>
+      <c r="N51" s="41">
+        <f t="shared" si="12"/>
+        <v>-0.56883339180439574</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>0.10396501984946301</v>
+      </c>
+      <c r="C52">
+        <v>0.10106212000000001</v>
+      </c>
+      <c r="D52">
+        <v>0.1050046700479576</v>
+      </c>
+      <c r="E52">
+        <v>0.205027139849463</v>
+      </c>
+      <c r="F52">
+        <v>1.17256738048221E-5</v>
+      </c>
+      <c r="G52">
+        <v>2.0383952477033721E-7</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="43">
+        <f t="shared" si="8"/>
+        <v>9.9999999999997001E-3</v>
+      </c>
+      <c r="J52" s="44">
+        <f t="shared" si="13"/>
+        <v>-2.3910184025689443E-3</v>
+      </c>
+      <c r="K52" s="41">
+        <f t="shared" si="9"/>
+        <v>-0.23910184025690159</v>
+      </c>
+      <c r="L52" s="43">
+        <f t="shared" si="14"/>
+        <v>9.9999999999997001E-3</v>
+      </c>
+      <c r="M52" s="48">
+        <f t="shared" si="11"/>
+        <v>-6.3152188235594071E-4</v>
+      </c>
+      <c r="N52" s="41">
+        <f t="shared" si="12"/>
+        <v>-6.3152188235595971E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>38.156061538172388</v>
+      </c>
+      <c r="C53">
+        <v>11.795843100000001</v>
+      </c>
+      <c r="D53">
+        <v>38.537622153554118</v>
+      </c>
+      <c r="E53">
+        <v>49.951904638172387</v>
+      </c>
+      <c r="F53">
+        <v>1.1681112205534669E-5</v>
+      </c>
+      <c r="G53">
+        <v>2.0289773701847331E-7</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="43">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000158E-2</v>
+      </c>
+      <c r="J53" s="44">
+        <f t="shared" si="13"/>
+        <v>-7.0002124294704631E-3</v>
+      </c>
+      <c r="K53" s="41">
+        <f t="shared" si="9"/>
+        <v>-0.70002124294703527</v>
+      </c>
+      <c r="L53" s="43">
+        <f t="shared" si="14"/>
+        <v>1.0000000000000158E-2</v>
+      </c>
+      <c r="M53" s="48">
+        <f t="shared" si="11"/>
+        <v>-4.4294663249221447E-3</v>
+      </c>
+      <c r="N53" s="41">
+        <f t="shared" si="12"/>
+        <v>-0.44294663249220745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>8.9430527116520544</v>
+      </c>
+      <c r="C54">
+        <v>13.2239059</v>
+      </c>
+      <c r="D54">
+        <v>9.0324832387685756</v>
+      </c>
+      <c r="E54">
+        <v>22.16695861165206</v>
+      </c>
+      <c r="F54">
+        <v>1.172798669023496E-5</v>
+      </c>
+      <c r="G54">
+        <v>2.0399193048436489E-7</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="43">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000075E-2</v>
+      </c>
+      <c r="J54" s="44">
+        <f t="shared" si="13"/>
+        <v>-1.6451311202468127E-3</v>
+      </c>
+      <c r="K54" s="41">
+        <f t="shared" si="9"/>
+        <v>-0.16451311202468005</v>
+      </c>
+      <c r="L54" s="43">
+        <f t="shared" si="14"/>
+        <v>1.0000000000000075E-2</v>
+      </c>
+      <c r="M54" s="48">
+        <f t="shared" si="11"/>
+        <v>-4.3439676924220214E-4</v>
+      </c>
+      <c r="N54" s="41">
+        <f t="shared" si="12"/>
+        <v>-4.3439676924219892E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>1.1733083503802261E-5</v>
+      </c>
+      <c r="G55">
+        <v>2.0432807696251611E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H56" s="37"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G59" s="50"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>0.38</v>
+      </c>
+      <c r="I61">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>2.1</v>
+      </c>
+      <c r="H62">
+        <f>G62*$H$61</f>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="I62">
+        <f>H62/100*$I$61</f>
+        <v>39.900000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>0.6</v>
+      </c>
+      <c r="H63">
+        <f>G63*$H$61</f>
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="I63">
+        <f>H63/100*$I$61</f>
+        <v>11.4</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R14">
+      <sortCondition ref="R1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="K27:K38">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:K54">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:N38">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43:N54">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:J38">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1103,9 +7136,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -1412,9 +7455,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -1437,13 +7489,13 @@
       <c r="B2">
         <v>4.38163627038705E-5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="37">
         <v>214.44122293535111</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="37">
         <v>2.0637136054775519E-7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="37">
         <v>1.0100000137798679</v>
       </c>
     </row>
@@ -1454,13 +7506,13 @@
       <c r="B3">
         <v>2.0432807696251611E-7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="37">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="37">
         <v>2.0432807696251611E-7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1471,13 +7523,13 @@
       <c r="B4">
         <v>1.870123522731197E-7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="37">
         <v>0.9152552848007619</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="37">
         <v>2.0432807696251611E-7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1488,13 +7540,13 @@
       <c r="B5">
         <v>4.0696529690850528E-7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="37">
         <v>1.9917247935689371</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="37">
         <v>2.0637097898110179E-7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="37">
         <v>1.0099981463583221</v>
       </c>
     </row>
@@ -1505,13 +7557,13 @@
       <c r="B6">
         <v>2.3638179627460491E-7</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="37">
         <v>1.156873787433379</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="37">
         <v>2.0637097898110179E-7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="37">
         <v>1.0099981463583221</v>
       </c>
     </row>
@@ -1522,13 +7574,13 @@
       <c r="B7">
         <v>1.2822046524114571E-7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="37">
         <v>0.62752249787320047</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="37">
         <v>2.0230502669556051E-7</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="37">
         <v>0.99009900990099009</v>
       </c>
     </row>
@@ -1539,13 +7591,13 @@
       <c r="B8">
         <v>3.2063617198088101E-7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="37">
         <v>1.5692222857835709</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="37">
         <v>2.06370978981102E-7</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="37">
         <v>1.009998146358323</v>
       </c>
     </row>
@@ -1556,13 +7608,13 @@
       <c r="B9">
         <v>4.2094952196340011E-7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="37">
         <v>2.0601648496923071</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="37">
         <v>2.0637097898110179E-7</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="37">
         <v>1.0099981463583221</v>
       </c>
     </row>
@@ -1573,13 +7625,13 @@
       <c r="B10">
         <v>1.870770623848159E-7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="37">
         <v>0.91557198191188915</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="37">
         <v>2.024919053199108E-7</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="37">
         <v>0.99101361070929983</v>
       </c>
     </row>
@@ -1590,13 +7642,13 @@
       <c r="B11">
         <v>1.6191220512165019E-7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="37">
         <v>0.79241290540483544</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="37">
         <v>2.0383952477033721E-7</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="37">
         <v>0.99760898159743083</v>
       </c>
     </row>
@@ -1607,13 +7659,13 @@
       <c r="B12">
         <v>1.6444655153110851E-7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="37">
         <v>0.80481622484645665</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="37">
         <v>2.0289773701847331E-7</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="37">
         <v>0.99299978757052931</v>
       </c>
     </row>
@@ -1624,13 +7676,13 @@
       <c r="B13">
         <v>1.6017974714525221E-7</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="37">
         <v>0.78393410013170661</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="37">
         <v>2.0399193048436489E-7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="37">
         <v>0.99835486887975311</v>
       </c>
     </row>
@@ -1641,13 +7693,13 @@
       <c r="B14">
         <v>2.0432807696251611E-7</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="37">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="37">
         <v>2.0432807696251611E-7</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1660,7 +7712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
